--- a/backbase.qa/ManualTestCases/BB_Manual_TC.xlsx
+++ b/backbase.qa/ManualTestCases/BB_Manual_TC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Selenium\Backbase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\Assignment\backbase.qa\ManualTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C984EE-F3A9-44E7-8DB9-7354FE6F4813}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790BCFE-8275-4C37-A111-969CB9CDC89F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{B1A12E5D-A0F8-4941-B626-B2A57E94A6E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{B1A12E5D-A0F8-4941-B626-B2A57E94A6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="BB_TestCases" sheetId="1" r:id="rId1"/>
@@ -554,13 +554,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7401381-1204-4B29-A04D-C39704D25613}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -922,258 +922,258 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>9</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1197,141 +1197,141 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4">
         <v>6</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4">
         <v>7</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4">
         <v>8</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1340,13 +1340,13 @@
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>9</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1355,277 +1355,277 @@
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>10</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4">
         <v>3</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4">
         <v>4</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4">
         <v>5</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4">
         <v>7</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4">
         <v>8</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4">
         <v>3</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4">
         <v>4</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>1</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4">
         <v>3</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4">
         <v>4</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1634,13 +1634,13 @@
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>5</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1649,13 +1649,13 @@
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>6</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1664,13 +1664,13 @@
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>7</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1679,13 +1679,13 @@
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>8</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>9</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1709,13 +1709,13 @@
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>10</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1724,13 +1724,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>11</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1739,13 +1739,13 @@
       <c r="B53" s="8"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>12</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1754,13 +1754,13 @@
       <c r="B54" s="8"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>13</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1769,13 +1769,13 @@
       <c r="B55" s="8"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>14</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1784,13 +1784,13 @@
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>15</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1799,13 +1799,13 @@
       <c r="B57" s="8"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>16</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1814,81 +1814,81 @@
       <c r="B58" s="8"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>17</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>1</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="4">
         <v>3</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="4">
         <v>4</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1897,13 +1897,13 @@
       <c r="B63" s="8"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>5</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1912,13 +1912,13 @@
       <c r="B64" s="8"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>6</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1927,13 +1927,13 @@
       <c r="B65" s="8"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>7</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1942,13 +1942,13 @@
       <c r="B66" s="8"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>8</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1957,13 +1957,13 @@
       <c r="B67" s="8"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>9</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1972,13 +1972,13 @@
       <c r="B68" s="8"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>10</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1987,13 +1987,13 @@
       <c r="B69" s="8"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>11</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2002,13 +2002,13 @@
       <c r="B70" s="8"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>12</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2017,13 +2017,13 @@
       <c r="B71" s="8"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>13</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2032,13 +2032,13 @@
       <c r="B72" s="8"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>14</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2047,13 +2047,13 @@
       <c r="B73" s="8"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>15</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2062,81 +2062,81 @@
       <c r="B74" s="8"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>16</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>1</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4">
         <v>2</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="4">
         <v>3</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4">
         <v>4</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2145,13 +2145,13 @@
       <c r="B79" s="8"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>5</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2160,13 +2160,13 @@
       <c r="B80" s="8"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>6</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2175,81 +2175,81 @@
       <c r="B81" s="8"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>7</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>1</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="4">
         <v>2</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="4">
         <v>3</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="4">
         <v>4</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2258,13 +2258,13 @@
       <c r="B86" s="8"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>5</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2273,13 +2273,13 @@
       <c r="B87" s="8"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>6</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="B88" s="8"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>7</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2303,81 +2303,81 @@
       <c r="B89" s="8"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>8</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>1</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="4">
         <v>2</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="4">
         <v>3</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="A93" s="6"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="4">
         <v>4</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2386,13 +2386,13 @@
       <c r="B94" s="8"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>5</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2401,13 +2401,13 @@
       <c r="B95" s="8"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>6</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2416,13 +2416,13 @@
       <c r="B96" s="8"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>7</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2431,81 +2431,81 @@
       <c r="B97" s="8"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>8</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>1</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="5">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="4">
         <v>2</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="A100" s="6"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="4">
         <v>3</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="4"/>
+      <c r="A101" s="6"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="5">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="4">
         <v>4</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2514,13 +2514,13 @@
       <c r="B102" s="8"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>5</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2529,13 +2529,13 @@
       <c r="B103" s="8"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>6</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2544,13 +2544,13 @@
       <c r="B104" s="8"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>7</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2559,81 +2559,81 @@
       <c r="B105" s="8"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>8</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>1</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="A107" s="6"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="4">
         <v>2</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="A108" s="6"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="5">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="4">
         <v>3</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="A109" s="6"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="4">
         <v>4</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2642,13 +2642,13 @@
       <c r="B110" s="8"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>5</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2657,13 +2657,13 @@
       <c r="B111" s="8"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>6</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2672,13 +2672,13 @@
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>7</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2687,81 +2687,81 @@
       <c r="B113" s="8"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>8</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G113" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>1</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="4"/>
+      <c r="A115" s="6"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="4">
         <v>2</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="4"/>
+      <c r="A116" s="6"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="4">
         <v>3</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
+      <c r="A117" s="6"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="5">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="4">
         <v>4</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2770,13 +2770,13 @@
       <c r="B118" s="8"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="5">
+      <c r="E118" s="4">
         <v>5</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2785,13 +2785,13 @@
       <c r="B119" s="8"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>6</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2800,13 +2800,13 @@
       <c r="B120" s="8"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>7</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2815,26 +2815,48 @@
       <c r="B121" s="8"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>8</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G121" s="6" t="s">
+      <c r="G121" s="5" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D42:D58"/>
-    <mergeCell ref="D59:D74"/>
-    <mergeCell ref="D75:D81"/>
-    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A42:A58"/>
+    <mergeCell ref="A59:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="B42:B58"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="B98:B105"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="B90:B97"/>
     <mergeCell ref="C90:C97"/>
     <mergeCell ref="C98:C105"/>
     <mergeCell ref="C106:C113"/>
@@ -2849,36 +2871,14 @@
     <mergeCell ref="C20:C29"/>
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B98:B105"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="B42:B58"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="A114:A121"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A42:A58"/>
-    <mergeCell ref="A59:A74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D42:D58"/>
+    <mergeCell ref="D59:D74"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="D82:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E3D9E1-8C88-48C4-9396-1266E61B6642}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2926,258 +2926,258 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3186,141 +3186,141 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>9</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4">
         <v>6</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4">
         <v>8</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3329,141 +3329,141 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>9</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4">
         <v>7</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4">
         <v>8</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3472,13 +3472,13 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>9</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3487,172 +3487,172 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>10</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4">
         <v>2</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4">
         <v>3</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4">
         <v>4</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>1</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4">
         <v>3</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4">
         <v>4</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3794,6 +3794,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="D28:D37"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="C39:C42"/>
@@ -3802,22 +3818,6 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:D46"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D10:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backbase.qa/ManualTestCases/BB_Manual_TC.xlsx
+++ b/backbase.qa/ManualTestCases/BB_Manual_TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\git\Assignment\backbase.qa\ManualTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790BCFE-8275-4C37-A111-969CB9CDC89F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36363EAC-542C-4E8A-BB21-A54181BA9016}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{B1A12E5D-A0F8-4941-B626-B2A57E94A6E4}"/>
   </bookViews>
@@ -2827,38 +2827,10 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="A114:A121"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A42:A58"/>
-    <mergeCell ref="A59:A74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="B42:B58"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="B98:B105"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="D42:D58"/>
+    <mergeCell ref="D59:D74"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="D82:D89"/>
     <mergeCell ref="C106:C113"/>
     <mergeCell ref="C114:C121"/>
     <mergeCell ref="D20:D29"/>
@@ -2875,10 +2847,38 @@
     <mergeCell ref="D98:D105"/>
     <mergeCell ref="D106:D113"/>
     <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D42:D58"/>
-    <mergeCell ref="D59:D74"/>
-    <mergeCell ref="D75:D81"/>
-    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="B98:B105"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A42:A58"/>
+    <mergeCell ref="A59:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B42:B58"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D10:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3794,6 +3794,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="D28:D37"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
@@ -3802,22 +3818,6 @@
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="D10:D18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
